--- a/config/xlsx/config.xlsx
+++ b/config/xlsx/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17535" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17535" windowHeight="7740" tabRatio="699" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="battle" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="map" sheetId="9" r:id="rId9"/>
     <sheet name="skill" sheetId="10" r:id="rId10"/>
     <sheet name="unitshow" sheetId="11" r:id="rId11"/>
+    <sheet name="unitrandom" sheetId="13" r:id="rId12"/>
+    <sheet name="unit" sheetId="12" r:id="rId13"/>
+    <sheet name="unitbuy" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -91,20 +94,44 @@
   <connection id="22" name="skill1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="F:\win8 dev\cocos2d-2.0-x-2.0.3\cocos2d-2.0-x-2.0.3\huhei\docs\映射源\skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" name="test" type="4" refreshedVersion="0" background="1">
+  <connection id="23" name="skill2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\GitHub\huihe\config\origin\skill.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="24" name="skill3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\GitHub\huihe\config\origin\skill.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="25" name="test" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="F:\win8 dev\txtParser\excel\test.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" name="test (2)" type="4" refreshedVersion="0" background="1">
+  <connection id="26" name="test (2)" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="F:\win8 dev\txtParser\excel\test (2).xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" name="unitshow" type="4" refreshedVersion="0" background="1">
+  <connection id="27" name="unit" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\GitHub\huihe\config\origin\unit.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="28" name="unit1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\GitHub\huihe\config\origin\unit.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="29" name="unit2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\GitHub\huihe\config\origin\unit.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="30" name="unit3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\configCreator\unit.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="31" name="unitbuy" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\GitHub\huihe\config\origin\unitbuy.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="32" name="unitrandom" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="F:\win8 dev\GitHub\huihe\config\origin\unitrandom.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="33" name="unitshow" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="F:\win8 dev\cocos2d-2.0-x-2.0.3\cocos2d-2.0-x-2.0.3\huhei\docs\映射源\unitshow.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
   <si>
     <t>npc2</t>
   </si>
@@ -400,10 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ranged</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,11 +451,144 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>增加本次攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kind</t>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENERGY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucy</t>
+  </si>
+  <si>
+    <t>lily</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpDef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Where</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力的百分比，额外数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续回合数目（-1=永久），数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,19 +612,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，依靠概率触发（chance）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动技能，消耗一定能量触发（cost）</t>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃乱舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破袭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -476,39 +756,304 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加本次攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENERGY</t>
+    <t>永久增加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力的百分比，额外数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击对方全体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低对方攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复伤害的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少对方怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130,1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145,1700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合伤害(debuff)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少对方护甲，不溢出(debuff)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害无法减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续回合数目（-1=永久），数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff/debuff说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认情况下，宿主身上来自不同释放者的相同id的buff都能生效，相同释放者且相同id的buff只更新生效回合数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damien</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosemary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,20 +1077,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -554,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,16 +1152,46 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,29 +1400,6 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema14">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="SkillTab">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Skill" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Kind" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Type" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cost" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Chance" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Params" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="NAME" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema16">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="NPCAttrTab">
@@ -822,6 +1414,99 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="DEF" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SPD" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ENERGY" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema20">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="UnitTab">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Unit" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ShowType" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="BaseHp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="LevelUpHp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="BaseDef" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="LevelUpDef" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="BaseAtk" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="LevelUpAtk" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="BaseEnergy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Skills" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="NAME" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema17">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="UnitRandomTab">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="UnitRandom" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Gold" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Items" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="RandomSet" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Weight" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema18">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="UnitBuyTab">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="UnitBuy" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Gold" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Items" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Where" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="limits" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema21">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="SkillTab">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Skill" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SEQ" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="LEVEL" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Type" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Chance" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Params" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="NAME" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -857,11 +1542,20 @@
   <Map ID="29" Name="ShopTab_映射" RootElement="ShopTab" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="20" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="51" Name="SkillTab_映射" RootElement="SkillTab" SchemaID="Schema14" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="22" DataBindingLoadMode="1"/>
+  <Map ID="68" Name="SkillTab_映射" RootElement="SkillTab" SchemaID="Schema21" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="24" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="63" Name="UnitBuyTab_映射" RootElement="UnitBuyTab" SchemaID="Schema18" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="31" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="62" Name="UnitRandomTab_映射" RootElement="UnitRandomTab" SchemaID="Schema17" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="32" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="50" Name="UnitShowTab_映射" RootElement="UnitShowTab" SchemaID="Schema11" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="25" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="33" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="61" Name="UnitTab_映射" RootElement="UnitTab" SchemaID="Schema20" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="30" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -900,29 +1594,33 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G3" tableType="xml" totalsRowShown="0" connectionId="22">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A1:H101" tableType="xml" totalsRowShown="0" connectionId="24">
+  <autoFilter ref="A1:H101"/>
+  <tableColumns count="8">
     <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="51" xpath="/SkillTab/Skill/ID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Kind" name="Kind">
-      <xmlColumnPr mapId="51" xpath="/SkillTab/Skill/Kind" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="Type" name="Type">
-      <xmlColumnPr mapId="51" xpath="/SkillTab/Skill/Type" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="Cost" name="Cost">
-      <xmlColumnPr mapId="51" xpath="/SkillTab/Skill/Cost" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="Chance" name="Chance">
-      <xmlColumnPr mapId="51" xpath="/SkillTab/Skill/Chance" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="Params" name="Params">
-      <xmlColumnPr mapId="51" xpath="/SkillTab/Skill/Params" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="NAME" name="NAME">
-      <xmlColumnPr mapId="51" xpath="/SkillTab/Skill/NAME" xmlDataType="integer"/>
+      <calculatedColumnFormula>[SEQ]*100+[LEVEL]</calculatedColumnFormula>
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/ID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="SEQ" name="SEQ">
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/SEQ" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="LEVEL" name="LEVEL">
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/LEVEL" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="Type" name="Type">
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/Type" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="Cost" name="Cost">
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/Cost" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="Chance" name="Chance" dataDxfId="2">
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/Chance" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="Params" name="Params" dataDxfId="1">
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/Params" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="NAME" name="NAME">
+      <xmlColumnPr mapId="68" xpath="/SkillTab/Skill/NAME" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -930,7 +1628,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C6" tableType="xml" totalsRowShown="0" connectionId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C6" tableType="xml" totalsRowShown="0" connectionId="33">
   <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="ShowType" name="ShowType">
@@ -941,6 +1639,96 @@
     </tableColumn>
     <tableColumn id="3" uniqueName="Bullet" name="Bullet">
       <xmlColumnPr mapId="50" xpath="/UnitShowTab/UnitShow/Bullet" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="表12" displayName="表12" ref="A1:E10" tableType="xml" totalsRowShown="0" connectionId="32">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" uniqueName="ID" name="ID">
+      <xmlColumnPr mapId="62" xpath="/UnitRandomTab/UnitRandom/ID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Gold" name="Gold">
+      <xmlColumnPr mapId="62" xpath="/UnitRandomTab/UnitRandom/Gold" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="Items" name="Items">
+      <xmlColumnPr mapId="62" xpath="/UnitRandomTab/UnitRandom/Items" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="RandomSet" name="RandomSet">
+      <xmlColumnPr mapId="62" xpath="/UnitRandomTab/UnitRandom/RandomSet" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="Weight" name="Weight">
+      <xmlColumnPr mapId="62" xpath="/UnitRandomTab/UnitRandom/Weight" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="表45" displayName="表45" ref="A1:K11" tableType="xml" totalsRowShown="0" connectionId="30">
+  <autoFilter ref="A1:K11"/>
+  <tableColumns count="11">
+    <tableColumn id="1" uniqueName="ID" name="ID">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/ID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="ShowType" name="ShowType">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/ShowType" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="BaseHp" name="BaseHp">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/BaseHp" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="LevelUpHp" name="LevelUpHp">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/LevelUpHp" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="BaseDef" name="BaseDef">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/BaseDef" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="LevelUpDef" name="LevelUpDef">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/LevelUpDef" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="BaseAtk" name="BaseAtk">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/BaseAtk" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="LevelUpAtk" name="LevelUpAtk">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/LevelUpAtk" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="BaseEnergy" name="BaseEnergy" dataDxfId="0">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/BaseEnergy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="Skills" name="Skills">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/Skills" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="NAME" name="NAME">
+      <xmlColumnPr mapId="61" xpath="/UnitTab/Unit/NAME" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A1:E4" tableType="xml" totalsRowShown="0" connectionId="31">
+  <autoFilter ref="A1:E4"/>
+  <tableColumns count="5">
+    <tableColumn id="1" uniqueName="ID" name="ID">
+      <xmlColumnPr mapId="63" xpath="/UnitBuyTab/UnitBuy/ID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Gold" name="Gold">
+      <xmlColumnPr mapId="63" xpath="/UnitBuyTab/UnitBuy/Gold" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="Items" name="Items">
+      <xmlColumnPr mapId="63" xpath="/UnitBuyTab/UnitBuy/Items" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="Where" name="Where">
+      <xmlColumnPr mapId="63" xpath="/UnitBuyTab/UnitBuy/Where" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="limits" name="limits">
+      <xmlColumnPr mapId="63" xpath="/UnitBuyTab/UnitBuy/limits" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -975,8 +1763,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F2" tableType="xml" totalsRowShown="0" connectionId="19">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:F3" tableType="xml" totalsRowShown="0" connectionId="19">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="53" xpath="/NPCAttrTab/NPCAttr/ID" xmlDataType="integer"/>
@@ -984,7 +1772,7 @@
     <tableColumn id="2" uniqueName="HP" name="HP">
       <xmlColumnPr mapId="53" xpath="/NPCAttrTab/NPCAttr/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ATK" name="ATK" dataDxfId="0">
+    <tableColumn id="3" uniqueName="ATK" name="ATK" dataDxfId="4">
       <xmlColumnPr mapId="53" xpath="/NPCAttrTab/NPCAttr/ATK" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="DEF" name="DEF">
@@ -1161,7 +1949,7 @@
     <tableColumn id="1" uniqueName="MapID" name="MapID">
       <xmlColumnPr mapId="37" xpath="/MapTab/Map/MapID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Battles" name="Battles" dataDxfId="1">
+    <tableColumn id="2" uniqueName="Battles" name="Battles" dataDxfId="3">
       <xmlColumnPr mapId="37" xpath="/MapTab/Map/Battles" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="BackgroundID" name="BackgroundID">
@@ -1623,59 +2411,73 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="10" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="27.625" customWidth="1"/>
+    <col min="14" max="15" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>1</v>
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1684,91 +2486,2865 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>500</v>
-      </c>
-      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2">
         <v>50001</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="K2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="1">
-        <v>50002</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>50001</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>103</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4">
+        <v>50001</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5">
+        <v>50001</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" t="s">
+        <v>202</v>
+      </c>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>50001</v>
+      </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>5</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>50001</v>
+      </c>
       <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M7" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>107</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8">
+        <v>50001</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9">
+        <v>50001</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10">
+        <v>50001</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11">
+        <v>50001</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M11" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" t="s">
+        <v>200</v>
+      </c>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>201</v>
+      </c>
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>400</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>202</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>400</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>203</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>400</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>204</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>400</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>205</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>400</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>206</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>400</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>207</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>400</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>208</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>400</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>209</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>400</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>210</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>400</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>301</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>302</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>303</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>304</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>305</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>306</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>307</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>308</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>309</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>310</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="1">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>401</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>402</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>403</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>404</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H35" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>405</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>406</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H37" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>407</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>408</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>409</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>410</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H41" s="1">
+        <v>50004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>501</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>502</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H43" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>503</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>504</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>505</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>506</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>507</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>508</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>509</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>510</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="1">
+        <v>50005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>601</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1">
+        <v>600</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>602</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1">
+        <v>600</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>603</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1">
+        <v>600</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>604</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
+        <v>600</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H55" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>605</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>600</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H56" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>606</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>600</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>607</v>
+      </c>
+      <c r="B58" s="1">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1">
+        <v>600</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>608</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1">
+        <v>600</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H59" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>609</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1">
+        <v>600</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>610</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1">
+        <v>600</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" s="1">
+        <v>50006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>701</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>702</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>100</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H63" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>703</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>100</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H64" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>704</v>
+      </c>
+      <c r="B65" s="1">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H65" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>705</v>
+      </c>
+      <c r="B66" s="1">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H66" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>706</v>
+      </c>
+      <c r="B67" s="1">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H67" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>707</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H68" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>708</v>
+      </c>
+      <c r="B69" s="1">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>709</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H70" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>710</v>
+      </c>
+      <c r="B71" s="1">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>100</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H71" s="1">
+        <v>50007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>801</v>
+      </c>
+      <c r="B72" s="1">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>802</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H73" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>803</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>804</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H75" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>805</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>100</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H76" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>806</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>807</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>808</v>
+      </c>
+      <c r="B79" s="1">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8</v>
+      </c>
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>100</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>809</v>
+      </c>
+      <c r="B80" s="1">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H80" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>810</v>
+      </c>
+      <c r="B81" s="1">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" s="1">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>901</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H82" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>902</v>
+      </c>
+      <c r="B83" s="1">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H83" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>903</v>
+      </c>
+      <c r="B84" s="1">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H84" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>904</v>
+      </c>
+      <c r="B85" s="1">
+        <v>9</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>100</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H85" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>905</v>
+      </c>
+      <c r="B86" s="1">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>9</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H86" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>906</v>
+      </c>
+      <c r="B87" s="1">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1">
+        <v>9</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>907</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H88" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>908</v>
+      </c>
+      <c r="B89" s="1">
+        <v>9</v>
+      </c>
+      <c r="C89" s="1">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H89" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>909</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H90" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>910</v>
+      </c>
+      <c r="B91" s="1">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" s="1">
+        <v>50009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1001</v>
+      </c>
+      <c r="B92" s="1">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>10</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H92" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1002</v>
+      </c>
+      <c r="B93" s="1">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>10</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H93" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1003</v>
+      </c>
+      <c r="B94" s="1">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H94" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1004</v>
+      </c>
+      <c r="B95" s="1">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H95" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1005</v>
+      </c>
+      <c r="B96" s="1">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>10</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1006</v>
+      </c>
+      <c r="B97" s="1">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1">
+        <v>10</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H97" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1007</v>
+      </c>
+      <c r="B98" s="1">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H98" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1008</v>
+      </c>
+      <c r="B99" s="1">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1">
+        <v>8</v>
+      </c>
+      <c r="D99" s="1">
+        <v>10</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1009</v>
+      </c>
+      <c r="B100" s="1">
+        <v>10</v>
+      </c>
+      <c r="C100" s="1">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1">
+        <v>10</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H100" s="1">
+        <v>50010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <f>[SEQ]*100+[LEVEL]</f>
+        <v>1010</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10</v>
+      </c>
+      <c r="C101" s="1">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>10</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H101" s="1">
+        <v>50010</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O2:O11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1778,7 +5354,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1793,10 +5369,10 @@
         <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1807,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1851,6 +5427,712 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>120</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>220</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>150</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="1">
+        <v>401</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>150</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6">
+        <v>501</v>
+      </c>
+      <c r="K6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>150</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J7">
+        <v>601</v>
+      </c>
+      <c r="K7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>150</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8">
+        <v>701</v>
+      </c>
+      <c r="K8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>150</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9">
+        <v>801</v>
+      </c>
+      <c r="K9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10">
+        <v>901</v>
+      </c>
+      <c r="K10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>150</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J11">
+        <v>1001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
@@ -1867,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1909,13 +6191,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>70</v>
@@ -1932,10 +6214,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -1952,10 +6234,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -1972,10 +6254,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -1992,10 +6274,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -2013,48 +6295,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -2064,6 +6346,32 @@
       </c>
       <c r="F2">
         <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>210</v>
+      </c>
+      <c r="C3" s="4">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +6388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -2903,8 +7211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/config/xlsx/config.xlsx
+++ b/config/xlsx/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17535" windowHeight="7740" tabRatio="699" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17535" windowHeight="7740" tabRatio="699" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="battle" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="250">
   <si>
     <t>npc2</t>
   </si>
@@ -357,18 +357,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>2,4,5</t>
-  </si>
-  <si>
-    <t>1,3,5</t>
-  </si>
-  <si>
     <t>BattleID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,10 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永久增加攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击力的百分比，额外数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,291 +752,368 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回复生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复伤害的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少对方怒气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125,900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130,1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145,1700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合伤害(debuff)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少对方护甲，不溢出(debuff)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害无法减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff/debuff说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认情况下，宿主身上来自不同释放者的相同id的buff都能生效，相同释放者且相同id的buff只更新生效回合数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damien</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rosemary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adolf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇打击</t>
+  </si>
+  <si>
+    <t>嗜血</t>
+  </si>
+  <si>
+    <t>npc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,5,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>削弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低对方攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复伤害的百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少对方怒气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>125,900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130,1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140,1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>145,1700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,550</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合伤害(debuff)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少对方护甲，不溢出(debuff)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害无法减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续回合数目（-1=永久），数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff/debuff说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认情况下，宿主身上来自不同释放者的相同id的buff都能生效，相同释放者且相同id的buff只更新生效回合数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damien</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Myra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carrie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rosemary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adolf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pandora</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1,800</t>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续回合数目（-1=永久），最大疊加次數，数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,7,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,6,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,6,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,7,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,8,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,8,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,10,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,8,110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,8,140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,9,180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,9,220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,10,270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,10,320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>削弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減少攻擊力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,6,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,7,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,9,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,9,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,10,210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1628,8 +1692,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C6" tableType="xml" totalsRowShown="0" connectionId="33">
-  <autoFilter ref="A1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C11" tableType="xml" totalsRowShown="0" connectionId="33">
+  <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="ShowType" name="ShowType">
       <xmlColumnPr mapId="50" xpath="/UnitShowTab/UnitShow/ShowType" xmlDataType="integer"/>
@@ -1736,8 +1800,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="A1:F6" tableType="xml" totalsRowShown="0" connectionId="17">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="表11" displayName="表11" ref="A1:F7" tableType="xml" totalsRowShown="0" connectionId="17">
+  <autoFilter ref="A1:F7"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="47" xpath="/NPCTab/NPC/ID" xmlDataType="integer"/>
@@ -2251,7 +2315,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2271,7 +2335,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
@@ -2286,10 +2350,10 @@
         <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -2300,10 +2364,10 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -2326,7 +2390,7 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2352,7 +2416,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2378,7 +2442,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2413,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2425,53 +2489,54 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="11.375" customWidth="1"/>
     <col min="10" max="12" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="27.625" customWidth="1"/>
-    <col min="14" max="15" width="30.875" customWidth="1"/>
+    <col min="14" max="14" width="48" customWidth="1"/>
+    <col min="15" max="15" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" t="s">
-        <v>123</v>
-      </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2495,28 +2560,31 @@
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>50001</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>204</v>
+        <v>110</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2540,7 +2608,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H3">
         <v>50001</v>
@@ -2548,19 +2616,19 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>151</v>
+      <c r="K3" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O3" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
@@ -2583,7 +2651,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H4">
         <v>50001</v>
@@ -2592,18 +2660,18 @@
         <v>3</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
@@ -2626,7 +2694,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H5">
         <v>50001</v>
@@ -2634,19 +2702,19 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>153</v>
+      <c r="K5" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="N5" t="s">
-        <v>202</v>
-      </c>
-      <c r="O5" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
@@ -2669,7 +2737,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H6">
         <v>50001</v>
@@ -2677,19 +2745,19 @@
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>154</v>
+      <c r="K6" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="N6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O6" s="10"/>
+        <v>228</v>
+      </c>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
@@ -2712,7 +2780,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H7">
         <v>50001</v>
@@ -2720,19 +2788,19 @@
       <c r="J7">
         <v>6</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>155</v>
+      <c r="K7" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N7" t="s">
-        <v>161</v>
-      </c>
-      <c r="O7" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
@@ -2755,7 +2823,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H8">
         <v>50001</v>
@@ -2764,18 +2832,18 @@
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M8" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="N8" t="s">
-        <v>159</v>
-      </c>
-      <c r="O8" s="10"/>
+        <v>228</v>
+      </c>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
@@ -2798,7 +2866,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>50001</v>
@@ -2806,19 +2874,19 @@
       <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>156</v>
+      <c r="K9" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="N9" t="s">
-        <v>166</v>
-      </c>
-      <c r="O9" s="10"/>
+        <v>159</v>
+      </c>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
@@ -2841,7 +2909,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H10">
         <v>50001</v>
@@ -2850,18 +2918,18 @@
         <v>9</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N10" t="s">
-        <v>159</v>
-      </c>
-      <c r="O10" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
@@ -2884,7 +2952,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H11">
         <v>50001</v>
@@ -2893,18 +2961,18 @@
         <v>10</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M11" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="N11" t="s">
-        <v>200</v>
-      </c>
-      <c r="O11" s="10"/>
+        <v>183</v>
+      </c>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
@@ -2927,11 +2995,14 @@
         <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H12" s="1">
         <v>50002</v>
       </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
@@ -2954,7 +3025,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H13" s="1">
         <v>50002</v>
@@ -2981,7 +3052,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H14" s="1">
         <v>50002</v>
@@ -3008,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H15" s="1">
         <v>50002</v>
@@ -3035,13 +3106,13 @@
         <v>100</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H16" s="1">
         <v>50002</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>206</v>
@@ -3062,13 +3133,13 @@
         <v>100</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H17" s="1">
         <v>50002</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>207</v>
@@ -3089,13 +3160,13 @@
         <v>100</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H18" s="1">
         <v>50002</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>208</v>
@@ -3116,13 +3187,13 @@
         <v>100</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H19" s="1">
         <v>50002</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>209</v>
@@ -3143,13 +3214,13 @@
         <v>100</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H20" s="1">
         <v>50002</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>210</v>
@@ -3170,13 +3241,13 @@
         <v>100</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="H21" s="1">
         <v>50002</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>301</v>
@@ -3197,13 +3268,16 @@
         <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H22" s="1">
         <v>50003</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>302</v>
@@ -3224,13 +3298,13 @@
         <v>100</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H23" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>303</v>
@@ -3251,13 +3325,13 @@
         <v>100</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H24" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>304</v>
@@ -3278,13 +3352,13 @@
         <v>100</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H25" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>305</v>
@@ -3305,13 +3379,13 @@
         <v>100</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H26" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>306</v>
@@ -3332,13 +3406,13 @@
         <v>100</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H27" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>307</v>
@@ -3359,13 +3433,13 @@
         <v>100</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>308</v>
@@ -3386,13 +3460,13 @@
         <v>100</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H29" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>309</v>
@@ -3413,13 +3487,13 @@
         <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H30" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>310</v>
@@ -3440,13 +3514,13 @@
         <v>100</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H31" s="1">
         <v>50003</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>401</v>
@@ -3467,13 +3541,16 @@
         <v>100</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="H32" s="1">
         <v>50004</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>402</v>
@@ -3494,13 +3571,13 @@
         <v>100</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H33" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>403</v>
@@ -3521,13 +3598,13 @@
         <v>100</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H34" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>404</v>
@@ -3548,13 +3625,13 @@
         <v>100</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="H35" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>405</v>
@@ -3575,13 +3652,13 @@
         <v>100</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H36" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>406</v>
@@ -3602,13 +3679,13 @@
         <v>100</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H37" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>407</v>
@@ -3629,13 +3706,13 @@
         <v>100</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H38" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>408</v>
@@ -3656,13 +3733,13 @@
         <v>100</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="H39" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>409</v>
@@ -3683,13 +3760,13 @@
         <v>100</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="H40" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>410</v>
@@ -3710,13 +3787,13 @@
         <v>100</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="H41" s="1">
         <v>50004</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>501</v>
@@ -3737,13 +3814,16 @@
         <v>100</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="H42" s="1">
         <v>50005</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>502</v>
@@ -3764,13 +3844,13 @@
         <v>100</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="H43" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>503</v>
@@ -3791,13 +3871,13 @@
         <v>100</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="H44" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>504</v>
@@ -3818,13 +3898,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="H45" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>505</v>
@@ -3845,13 +3925,13 @@
         <v>100</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="H46" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>506</v>
@@ -3872,13 +3952,13 @@
         <v>100</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="H47" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>507</v>
@@ -3899,13 +3979,13 @@
         <v>100</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="H48" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>508</v>
@@ -3926,13 +4006,13 @@
         <v>100</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="H49" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>509</v>
@@ -3953,13 +4033,13 @@
         <v>100</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="H50" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>510</v>
@@ -3980,13 +4060,13 @@
         <v>100</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="H51" s="1">
         <v>50005</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>601</v>
@@ -4007,13 +4087,16 @@
         <v>100</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H52" s="1">
         <v>50006</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>602</v>
@@ -4034,13 +4117,13 @@
         <v>100</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H53" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>603</v>
@@ -4061,13 +4144,13 @@
         <v>100</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="H54" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>604</v>
@@ -4088,13 +4171,13 @@
         <v>100</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H55" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>605</v>
@@ -4115,13 +4198,13 @@
         <v>100</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="H56" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>606</v>
@@ -4142,13 +4225,13 @@
         <v>100</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H57" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>607</v>
@@ -4169,13 +4252,13 @@
         <v>100</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="H58" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>608</v>
@@ -4196,13 +4279,13 @@
         <v>100</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H59" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>609</v>
@@ -4223,13 +4306,13 @@
         <v>100</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H60" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>610</v>
@@ -4250,13 +4333,13 @@
         <v>100</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H61" s="1">
         <v>50006</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>701</v>
@@ -4276,14 +4359,17 @@
       <c r="F62">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>129</v>
+      <c r="G62" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="H62" s="1">
         <v>50007</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>702</v>
@@ -4303,14 +4389,14 @@
       <c r="F63">
         <v>100</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>173</v>
+      <c r="G63" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="H63" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>703</v>
@@ -4330,14 +4416,14 @@
       <c r="F64">
         <v>100</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>168</v>
+      <c r="G64" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="H64" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>704</v>
@@ -4357,14 +4443,14 @@
       <c r="F65">
         <v>100</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>174</v>
+      <c r="G65" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="H65" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>705</v>
@@ -4384,14 +4470,14 @@
       <c r="F66">
         <v>100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>169</v>
+      <c r="G66" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="H66" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>706</v>
@@ -4411,14 +4497,14 @@
       <c r="F67">
         <v>100</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>170</v>
+      <c r="G67" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="H67" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>707</v>
@@ -4438,14 +4524,14 @@
       <c r="F68">
         <v>100</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>171</v>
+      <c r="G68" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="H68" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>708</v>
@@ -4465,14 +4551,14 @@
       <c r="F69">
         <v>100</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>176</v>
+      <c r="G69" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="H69" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>709</v>
@@ -4492,14 +4578,14 @@
       <c r="F70">
         <v>100</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>172</v>
+      <c r="G70" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="H70" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>710</v>
@@ -4519,14 +4605,14 @@
       <c r="F71">
         <v>100</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>177</v>
+      <c r="G71" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="H71" s="1">
         <v>50007</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>801</v>
@@ -4547,13 +4633,16 @@
         <v>100</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H72" s="1">
         <v>50008</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>802</v>
@@ -4574,13 +4663,13 @@
         <v>100</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H73" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>803</v>
@@ -4601,13 +4690,13 @@
         <v>100</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H74" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>804</v>
@@ -4628,13 +4717,13 @@
         <v>100</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H75" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>805</v>
@@ -4655,13 +4744,13 @@
         <v>100</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H76" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>806</v>
@@ -4682,13 +4771,13 @@
         <v>100</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H77" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>807</v>
@@ -4709,13 +4798,13 @@
         <v>100</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H78" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>808</v>
@@ -4736,13 +4825,13 @@
         <v>100</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H79" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>809</v>
@@ -4763,13 +4852,13 @@
         <v>100</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H80" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>810</v>
@@ -4790,13 +4879,13 @@
         <v>100</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H81" s="1">
         <v>50008</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>901</v>
@@ -4817,13 +4906,16 @@
         <v>100</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="H82" s="1">
         <v>50009</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>902</v>
@@ -4844,13 +4936,13 @@
         <v>100</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="H83" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>903</v>
@@ -4871,13 +4963,13 @@
         <v>100</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H84" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>904</v>
@@ -4898,13 +4990,13 @@
         <v>100</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H85" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>905</v>
@@ -4925,13 +5017,13 @@
         <v>100</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H86" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:9">
       <c r="A87">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>906</v>
@@ -4952,13 +5044,13 @@
         <v>100</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H87" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:9">
       <c r="A88">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>907</v>
@@ -4979,13 +5071,13 @@
         <v>100</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H88" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:9">
       <c r="A89">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>908</v>
@@ -5006,13 +5098,13 @@
         <v>100</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H89" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:9">
       <c r="A90">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>909</v>
@@ -5033,13 +5125,13 @@
         <v>100</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H90" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:9">
       <c r="A91">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>910</v>
@@ -5060,13 +5152,13 @@
         <v>100</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H91" s="1">
         <v>50009</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>1001</v>
@@ -5084,16 +5176,19 @@
         <v>0</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H92" s="1">
         <v>50010</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>1002</v>
@@ -5111,16 +5206,16 @@
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H93" s="1">
         <v>50010</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9">
       <c r="A94">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>1003</v>
@@ -5138,16 +5233,16 @@
         <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H94" s="1">
         <v>50010</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9">
       <c r="A95">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>1004</v>
@@ -5165,16 +5260,16 @@
         <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H95" s="1">
         <v>50010</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9">
       <c r="A96">
         <f>[SEQ]*100+[LEVEL]</f>
         <v>1005</v>
@@ -5192,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H96" s="1">
         <v>50010</v>
@@ -5219,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H97" s="1">
         <v>50010</v>
@@ -5246,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H98" s="1">
         <v>50010</v>
@@ -5273,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H99" s="1">
         <v>50010</v>
@@ -5300,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H100" s="1">
         <v>50010</v>
@@ -5327,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H101" s="1">
         <v>50010</v>
@@ -5351,10 +5446,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5366,13 +5461,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5383,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5430,11 +5525,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5458,19 +5609,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5640,7 +5791,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5659,37 +5810,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" t="s">
-        <v>102</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -5718,13 +5869,13 @@
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5753,13 +5904,13 @@
         <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5788,13 +5939,13 @@
         <v>11</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5823,13 +5974,13 @@
         <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="J5" s="1">
         <v>401</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5858,13 +6009,13 @@
         <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J6">
         <v>501</v>
       </c>
       <c r="K6" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5893,13 +6044,13 @@
         <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J7">
         <v>601</v>
       </c>
       <c r="K7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5928,13 +6079,13 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J8">
         <v>701</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5963,13 +6114,13 @@
         <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J9">
         <v>801</v>
       </c>
       <c r="K9" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5998,13 +6149,13 @@
         <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J10">
         <v>901</v>
       </c>
       <c r="K10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6033,13 +6184,13 @@
         <v>15</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J11">
         <v>1001</v>
       </c>
       <c r="K11" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6070,19 +6221,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6147,10 +6298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6165,22 +6316,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6200,7 +6351,7 @@
         <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6231,10 +6382,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>43</v>
@@ -6254,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
@@ -6271,16 +6422,36 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6298,7 +6469,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6310,22 +6481,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6336,7 +6507,7 @@
         <v>480</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -6348,7 +6519,7 @@
         <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6362,7 +6533,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -6371,7 +6542,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8083,13 +8254,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -8100,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
